--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A668E-E12B-4E40-BC52-30209BF43822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62F637-FA8D-47B3-853A-DD6A4089D363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3135" windowWidth="21600" windowHeight="11145" xr2:uid="{EB672835-CD37-49BD-93D4-0F58C646CE78}"/>
+    <workbookView xWindow="29610" yWindow="2820" windowWidth="21600" windowHeight="11145" xr2:uid="{EB672835-CD37-49BD-93D4-0F58C646CE78}"/>
   </bookViews>
   <sheets>
     <sheet name="listV1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>Guantes de boxeo negros de medio dedo para adultos de calidad profesional</t>
   </si>
   <si>
@@ -103,6 +100,18 @@
   </si>
   <si>
     <t>Muñequera ergonómica negra de fibra de poliéster cómoda, ideal para lesiones deportivas y esguinces. Lavar solo a mano.</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Deporte</t>
+  </si>
+  <si>
+    <t>Salud</t>
   </si>
 </sst>
 </file>
@@ -154,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -266,11 +275,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -305,11 +323,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -322,17 +343,33 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF434343"/>
         <name val="Roboto"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FF356854"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFF6F8F9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -501,13 +538,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF284E3F"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color rgb="FF284E3F"/>
         </left>
@@ -521,6 +551,37 @@
           <color rgb="FF284E3F"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF284E3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,13 +597,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47AB7F9B-9B00-410D-AE79-F128BB89EE79}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:D12" xr:uid="{47AB7F9B-9B00-410D-AE79-F128BB89EE79}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47AB7F9B-9B00-410D-AE79-F128BB89EE79}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E12" xr:uid="{47AB7F9B-9B00-410D-AE79-F128BB89EE79}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7580725A-3D9A-4D8C-9844-BF6DA223C129}" name="Nombre" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{175E42E6-18BD-4AC4-A48F-98A24F65089B}" name="Descripción" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{DF447EF0-7799-4459-9EA4-8D51BE51AF9B}" name="Precio" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{093FDCF3-C90B-494D-B54D-DCB11886D85E}" name="Stock" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{093FDCF3-C90B-494D-B54D-DCB11886D85E}" name="Cantidad" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{101324ED-8F8B-4074-A1BF-D1A00FF5799C}" name="Categoria" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -845,20 +907,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D98F210-D7EE-4428-88C1-885070583368}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -869,15 +931,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>6003.34</v>
@@ -885,13 +950,16 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="4">
         <v>1570</v>
@@ -899,13 +967,16 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>10417.049999999999</v>
@@ -913,13 +984,16 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>6320</v>
@@ -927,13 +1001,16 @@
       <c r="D5" s="4">
         <v>6</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>6320</v>
@@ -941,13 +1018,16 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="4">
         <v>12274.8</v>
@@ -955,13 +1035,16 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>6320</v>
@@ -969,13 +1052,16 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="4">
         <v>6400</v>
@@ -983,13 +1069,16 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>6400</v>
@@ -997,13 +1086,16 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="4">
         <v>1610</v>
@@ -1011,19 +1103,25 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="11">
         <v>3068.5</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62F637-FA8D-47B3-853A-DD6A4089D363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F72B02-ED6E-4762-A2EA-64D7A4E80FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="2820" windowWidth="21600" windowHeight="11145" xr2:uid="{EB672835-CD37-49BD-93D4-0F58C646CE78}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{EB672835-CD37-49BD-93D4-0F58C646CE78}"/>
   </bookViews>
   <sheets>
     <sheet name="listV1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Nombre</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Salud</t>
+  </si>
+  <si>
+    <t>Carpeta de imagenes</t>
   </si>
 </sst>
 </file>
@@ -330,7 +333,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFF6F8F9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -597,14 +640,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47AB7F9B-9B00-410D-AE79-F128BB89EE79}" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E12" xr:uid="{47AB7F9B-9B00-410D-AE79-F128BB89EE79}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7580725A-3D9A-4D8C-9844-BF6DA223C129}" name="Nombre" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{175E42E6-18BD-4AC4-A48F-98A24F65089B}" name="Descripción" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DF447EF0-7799-4459-9EA4-8D51BE51AF9B}" name="Precio" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{093FDCF3-C90B-494D-B54D-DCB11886D85E}" name="Cantidad" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{101324ED-8F8B-4074-A1BF-D1A00FF5799C}" name="Categoria" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47AB7F9B-9B00-410D-AE79-F128BB89EE79}" name="Table1" displayName="Table1" ref="A1:F12" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F12" xr:uid="{47AB7F9B-9B00-410D-AE79-F128BB89EE79}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7580725A-3D9A-4D8C-9844-BF6DA223C129}" name="Nombre" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{175E42E6-18BD-4AC4-A48F-98A24F65089B}" name="Descripción" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DF447EF0-7799-4459-9EA4-8D51BE51AF9B}" name="Precio" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{093FDCF3-C90B-494D-B54D-DCB11886D85E}" name="Cantidad" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{101324ED-8F8B-4074-A1BF-D1A00FF5799C}" name="Categoria" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{A8435433-ED58-4EFE-8A7B-682AFDDE1082}" name="Carpeta de imagenes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -907,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D98F210-D7EE-4428-88C1-885070583368}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +964,7 @@
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -936,8 +980,11 @@
       <c r="E1" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -953,8 +1000,11 @@
       <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -970,8 +1020,11 @@
       <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -987,8 +1040,11 @@
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1004,8 +1060,11 @@
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1021,8 +1080,11 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1038,8 +1100,11 @@
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -1055,8 +1120,11 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1072,8 +1140,11 @@
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1089,8 +1160,11 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1106,8 +1180,11 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1122,6 +1199,9 @@
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A22922D-437E-4F3B-AB8B-907320B2F91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D1A7D5-2CE8-4899-9A1E-E608264C8AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
   <sheets>
     <sheet name="listV1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Nombre</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>Muñequera ergonómica negra de fibra de poliéster cómoda, ideal para lesiones deportivas y esguinces. Lavar solo a mano.</t>
+  </si>
+  <si>
+    <t>Faja Lumbar Ajustable – Soporte de Espalda genera Calor Relajante, Malla Transpirable, Ideal para Deportes, Cuidado Corporal y Uso Diario para la Espalda.</t>
+  </si>
+  <si>
+    <t>Faja Lumbar Ajustable</t>
+  </si>
+  <si>
+    <t>Pinza de Acupresión para la Mano</t>
+  </si>
+  <si>
+    <t>Pinza de Acupresión para la Mano Masaje Magnético en la Palma para Alivio de Migrañas, y Tensión</t>
+  </si>
+  <si>
+    <t>Pinza de Acupresion</t>
   </si>
 </sst>
 </file>
@@ -950,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38902C83-0ACB-4ABF-B1CF-9270A8C34919}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1052,7 @@
         <v>10417.049999999999</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1157,7 +1172,7 @@
         <v>6400</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1204,6 +1219,46 @@
       </c>
       <c r="F12" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>6460</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>2155</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D1A7D5-2CE8-4899-9A1E-E608264C8AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD41A03-33A7-4D42-AD86-27EF2D0BAA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Nombre</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Pinza de Acupresión para la Mano Masaje Magnético en la Palma para Alivio de Migrañas, y Tensión</t>
-  </si>
-  <si>
-    <t>Pinza de Acupresion</t>
   </si>
 </sst>
 </file>
@@ -967,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38902C83-0ACB-4ABF-B1CF-9270A8C34919}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD41A03-33A7-4D42-AD86-27EF2D0BAA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1D19AC-8322-439F-BBB9-152EC87A19E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -118,10 +118,10 @@
     <t>Faja Lumbar Ajustable</t>
   </si>
   <si>
-    <t>Pinza de Acupresión para la Mano</t>
-  </si>
-  <si>
     <t>Pinza de Acupresión para la Mano Masaje Magnético en la Palma para Alivio de Migrañas, y Tensión</t>
+  </si>
+  <si>
+    <t>Pinza de Acupresion para la Mano</t>
   </si>
 </sst>
 </file>
@@ -965,7 +965,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
       </c>
       <c r="C14">
         <v>2155</v>
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1D19AC-8322-439F-BBB9-152EC87A19E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CFFF58-C422-4A03-BF88-198BB4ADFA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Nombre</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Pinza de Acupresion para la Mano</t>
+  </si>
+  <si>
+    <t>Gorro de Gel refrescante para alivio de cabeza por compresa</t>
+  </si>
+  <si>
+    <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
   </si>
 </sst>
 </file>
@@ -962,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38902C83-0ACB-4ABF-B1CF-9270A8C34919}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1035,7 @@
         <v>1570</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1049,7 +1055,7 @@
         <v>10417.049999999999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1089,7 +1095,7 @@
         <v>6320</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1129,7 +1135,7 @@
         <v>6320</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1149,7 +1155,7 @@
         <v>6400</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1189,7 +1195,7 @@
         <v>1610</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1209,7 +1215,7 @@
         <v>3068.5</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1249,13 +1255,33 @@
         <v>2155</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>7709.44</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CFFF58-C422-4A03-BF88-198BB4ADFA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F2602-24B1-4540-97B8-25946F143497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Nombre</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
+  </si>
+  <si>
+    <t>Cinturón de soporte lumbar de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
+  </si>
+  <si>
+    <t>Cinturon_de_soporte_lumbar_de_compresion_con_5_placas_de_soporte</t>
+  </si>
+  <si>
+    <t>Cinturon de soporte lumbar de compresion con 5 placas de soporte</t>
   </si>
 </sst>
 </file>
@@ -968,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38902C83-0ACB-4ABF-B1CF-9270A8C34919}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1293,26 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>8348.7999999999993</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1F2602-24B1-4540-97B8-25946F143497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F034F-6E50-48C2-9F50-A1899B35FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
   <sheets>
     <sheet name="listV1" sheetId="1" r:id="rId1"/>
@@ -130,13 +130,13 @@
     <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
   </si>
   <si>
-    <t>Cinturón de soporte lumbar de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
-  </si>
-  <si>
     <t>Cinturon_de_soporte_lumbar_de_compresion_con_5_placas_de_soporte</t>
   </si>
   <si>
     <t>Cinturon de soporte lumbar de compresion con 5 placas de soporte</t>
+  </si>
+  <si>
+    <t>Cinturón de soporte lumbar de compresión, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16">
         <v>8348.7999999999993</v>
@@ -1310,7 +1310,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F034F-6E50-48C2-9F50-A1899B35FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA3C586-AC43-4D34-A72A-E52CFCC3E3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -133,10 +133,10 @@
     <t>Cinturon_de_soporte_lumbar_de_compresion_con_5_placas_de_soporte</t>
   </si>
   <si>
-    <t>Cinturon de soporte lumbar de compresion con 5 placas de soporte</t>
-  </si>
-  <si>
     <t>Cinturón de soporte lumbar de compresión, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
+  </si>
+  <si>
+    <t>Cinturon de soporte lumbar</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,7 +1298,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>8348.7999999999993</v>
@@ -1310,7 +1310,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA3C586-AC43-4D34-A72A-E52CFCC3E3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E7BDA5-2728-4D60-9253-BD79373FF9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -980,7 +980,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1221,7 @@
         <v>29</v>
       </c>
       <c r="C12">
-        <v>3068.5</v>
+        <v>2375</v>
       </c>
       <c r="D12">
         <v>2</v>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E7BDA5-2728-4D60-9253-BD79373FF9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3750278E-F88E-4CB1-B1B2-532359556534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Nombre</t>
   </si>
@@ -128,15 +128,6 @@
   </si>
   <si>
     <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
-  </si>
-  <si>
-    <t>Cinturon_de_soporte_lumbar_de_compresion_con_5_placas_de_soporte</t>
-  </si>
-  <si>
-    <t>Cinturón de soporte lumbar de compresión, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
-  </si>
-  <si>
-    <t>Cinturon de soporte lumbar</t>
   </si>
 </sst>
 </file>
@@ -977,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38902C83-0ACB-4ABF-B1CF-9270A8C34919}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,26 +1284,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>8348.7999999999993</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3750278E-F88E-4CB1-B1B2-532359556534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A8B853-0DA3-46F1-91A6-E912E29B7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Nombre</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
+  </si>
+  <si>
+    <t>Cinturón de soporte lumbar de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
+  </si>
+  <si>
+    <t>cinturon de soporte lumbar</t>
   </si>
 </sst>
 </file>
@@ -968,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38902C83-0ACB-4ABF-B1CF-9270A8C34919}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1290,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>8348.7999999999993</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A8B853-0DA3-46F1-91A6-E912E29B7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CECC4F-C8A7-4B79-BBA4-5C222226F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -133,7 +133,7 @@
     <t>Cinturón de soporte lumbar de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
   </si>
   <si>
-    <t>cinturon de soporte lumbar</t>
+    <t>Cinturon de Soporte Lumbar</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CECC4F-C8A7-4B79-BBA4-5C222226F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B2700-7A31-4FEF-95AE-F66899A243A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
   <sheets>
     <sheet name="listV1" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,10 @@
     <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
   </si>
   <si>
-    <t>Cinturón de soporte lumbar de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
-  </si>
-  <si>
-    <t>Cinturon de Soporte Lumbar</t>
+    <t>Faja de Soporte Lumbar y espalda</t>
+  </si>
+  <si>
+    <t>Cinturón de soporte lumbar y espalda de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>8348.7999999999993</v>
@@ -1304,7 +1304,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3B2700-7A31-4FEF-95AE-F66899A243A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396FFA99-4B63-4197-A7CB-AF7DE9F888E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -130,10 +130,10 @@
     <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
   </si>
   <si>
-    <t>Faja de Soporte Lumbar y espalda</t>
-  </si>
-  <si>
-    <t>Cinturón de soporte lumbar y espalda de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>8348.7999999999993</v>
@@ -1304,7 +1304,7 @@
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC32F76-2DD7-4102-8250-E0D61D105638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E234957-DDA2-4448-9EA2-62F19640CFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -980,7 +980,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,234 +1014,231 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>6003.34</v>
+        <v>8348.7999999999993</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1570</v>
+        <v>6003.34</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>10417.049999999999</v>
+        <v>1570</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>6320</v>
+        <v>10417.049999999999</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>6320</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>12274.8</v>
+        <v>6320</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>6320</v>
+        <v>12274.8</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>6400</v>
+        <v>6320</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>6400</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>1610</v>
+        <v>6400</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>2375</v>
+        <v>1610</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>6460</v>
+        <v>2375</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1250,64 +1247,67 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>2155</v>
+        <v>6460</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>7709.44</v>
+        <v>2155</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>8348.7999999999993</v>
+        <v>7709.44</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E234957-DDA2-4448-9EA2-62F19640CFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195973AA-E38A-404E-8804-2DCDD4C212C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
+    <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
   <sheets>
     <sheet name="listV1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>Nombre</t>
   </si>
@@ -124,19 +124,7 @@
     <t>Pinza de Acupresion para la Mano</t>
   </si>
   <si>
-    <t>Gorro de Gel refrescante para alivio de cabeza por compresa</t>
-  </si>
-  <si>
-    <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Cinturón de soporte lumbar y espalda de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
-  </si>
-  <si>
-    <t>Soporte Lumbar y espalda</t>
   </si>
 </sst>
 </file>
@@ -977,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38902C83-0ACB-4ABF-B1CF-9270A8C34919}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,231 +1002,234 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>8348.7999999999993</v>
+        <v>6003.34</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6003.34</v>
+        <v>1570</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1570</v>
+        <v>10417.049999999999</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>10417.049999999999</v>
+        <v>6320</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>6320</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>6320</v>
+        <v>12274.8</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>12274.8</v>
+        <v>6320</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>6320</v>
+        <v>6400</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>6400</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>6400</v>
+        <v>1610</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>1610</v>
+        <v>2375</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>2375</v>
+        <v>6460</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1247,72 +1238,32 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>6460</v>
+        <v>2155</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>2155</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>7709.44</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/listV1.xlsx
+++ b/data/listV1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDo\Downloads\CRMarket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195973AA-E38A-404E-8804-2DCDD4C212C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2291979-B40A-4E7B-987C-3FD6D99C059F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1860" windowWidth="24240" windowHeight="17640" xr2:uid="{1A5C6327-E5DB-4951-B86E-8F30BCB70E46}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Nombre</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cinturón de soporte lumbar y espalda de compresión con 5 placas de soporte reforzadas, de malla transpirable y compresión elástica ajustable. Adecuado para estar sentado, de pie, trabajar y actividades al aire libre, proporciona soporte para la parte baja de la espalda</t>
+  </si>
+  <si>
+    <t>Soporte Lumbar y espalda</t>
+  </si>
+  <si>
+    <t>Gorro de Gel refrescante para alivio de cabeza por compresa</t>
+  </si>
+  <si>
+    <t>Gorro de gel refrescante para ojos, cabeza, cuello, compresa fría reutilizable y ajustable para aliviar la tensión, relajarse.</t>
   </si>
 </sst>
 </file>
@@ -965,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38902C83-0ACB-4ABF-B1CF-9270A8C34919}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,8 +1273,48 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>7709.44</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>8348.7999999999993</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>34</v>
       </c>
     </row>
